--- a/data/random_lines_ext/bs_auto1.xlsx
+++ b/data/random_lines_ext/bs_auto1.xlsx
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.08023166023166024</v>
+        <v>0.1525490196078431</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>731.0193787528958</v>
+        <v>495572976.8398349</v>
       </c>
     </row>
   </sheetData>
